--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_351__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_351__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5420,19 +5420,19 @@
                   <c:v>-3.612779140472412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.86956977844238</c:v>
+                  <c:v>15.86955833435059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.90043830871582</c:v>
+                  <c:v>18.90043640136719</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34.10699844360352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.29526519775391</c:v>
+                  <c:v>94.29527282714844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.34793853759766</c:v>
+                  <c:v>77.34793090820312</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2141662240028381</c:v>
@@ -5444,10 +5444,10 @@
                   <c:v>90.11090850830078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.6534357666969299</c:v>
+                  <c:v>-0.6534386873245239</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.00187683105469</c:v>
+                  <c:v>91.00188446044922</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-2.443675756454468</c:v>
@@ -5456,22 +5456,22 @@
                   <c:v>-0.077114038169384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>79.87929534912109</c:v>
+                  <c:v>79.87928771972656</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.32066345214844</c:v>
+                  <c:v>94.32065582275391</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>77.25585174560547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.4622802734375</c:v>
+                  <c:v>78.46227264404297</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>94.78632354736328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.8735440373420715</c:v>
+                  <c:v>-0.8735499382019043</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>96.17485809326172</c:v>
@@ -5489,28 +5489,28 @@
                   <c:v>-0.7366258502006531</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-4.739689826965332</c:v>
+                  <c:v>-4.739680767059326</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.6327840685844421</c:v>
+                  <c:v>-0.6327928900718689</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.6324040293693542</c:v>
+                  <c:v>-0.6323981881141663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.9995545744895935</c:v>
+                  <c:v>-0.9995486736297607</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>77.38025665283203</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.7348290681838989</c:v>
+                  <c:v>-0.7348349690437317</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>94.82839965820312</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>94.05955505371094</c:v>
+                  <c:v>94.05954742431641</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.5344475507736206</c:v>
@@ -5522,10 +5522,10 @@
                   <c:v>-1.215580224990845</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>92.41085052490234</c:v>
+                  <c:v>92.41085815429688</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-3.850325584411621</c:v>
+                  <c:v>-3.850316762924194</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>90.15348052978516</c:v>
@@ -5534,13 +5534,13 @@
                   <c:v>81.78887939453125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37.74314498901367</c:v>
+                  <c:v>37.7431526184082</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>94.78916168212891</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.7955175638198853</c:v>
+                  <c:v>-0.7955146431922913</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>88.21049499511719</c:v>
@@ -5552,16 +5552,16 @@
                   <c:v>-0.6725969910621643</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.01627085171639919</c:v>
+                  <c:v>0.01627674326300621</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94.9444580078125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-5.351184844970703</c:v>
+                  <c:v>-5.351176261901855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3064965903759003</c:v>
+                  <c:v>0.3064936399459839</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>94.61731719970703</c:v>
@@ -5570,10 +5570,10 @@
                   <c:v>83.28237915039062</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.034878373146057</c:v>
+                  <c:v>-1.034875512123108</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.70182037353516</c:v>
+                  <c:v>94.70180511474609</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>84.83510589599609</c:v>
@@ -5585,28 +5585,28 @@
                   <c:v>-0.5709584951400757</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>95.58145904541016</c:v>
+                  <c:v>95.58145141601562</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>94.23185729980469</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.8173122406005859</c:v>
+                  <c:v>-0.8173210620880127</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>94.36668395996094</c:v>
+                  <c:v>94.36669158935547</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.9904643893241882</c:v>
+                  <c:v>-0.9904555678367615</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.0926833152771</c:v>
+                  <c:v>-3.092686414718628</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51.81366729736328</c:v>
+                  <c:v>51.81367111206055</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.7512862086296082</c:v>
+                  <c:v>-0.7512891292572021</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>95.11586761474609</c:v>
@@ -5618,19 +5618,19 @@
                   <c:v>80.80838012695312</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.37971431016922</c:v>
+                  <c:v>-0.3797113597393036</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>94.53559112548828</c:v>
+                  <c:v>94.53559875488281</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>95.83037567138672</c:v>
+                  <c:v>95.83038330078125</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>95.88056945800781</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.61919403076172</c:v>
+                  <c:v>89.61918640136719</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>94.71821594238281</c:v>
@@ -5648,13 +5648,13 @@
                   <c:v>73.96949768066406</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>90.11604309082031</c:v>
+                  <c:v>90.11603546142578</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.7182599306106567</c:v>
+                  <c:v>-0.7182540893554688</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>66.50696563720703</c:v>
+                  <c:v>66.50697326660156</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>94.31767272949219</c:v>
@@ -5666,25 +5666,25 @@
                   <c:v>-0.7503111958503723</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.024978160858154</c:v>
+                  <c:v>-1.024975299835205</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94.61360931396484</c:v>
+                  <c:v>94.61361694335938</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.932014524936676</c:v>
+                  <c:v>-0.932011604309082</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-3.346392393112183</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>96.06475067138672</c:v>
+                  <c:v>96.06474304199219</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.637871503829956</c:v>
+                  <c:v>3.637868404388428</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>92.09235382080078</c:v>
+                  <c:v>92.09234619140625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.86956977844238</v>
+        <v>15.86955833435059</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>18.90043830871582</v>
+        <v>18.90043640136719</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>94.29526519775391</v>
+        <v>94.29527282714844</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>77.34793853759766</v>
+        <v>77.34793090820312</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.6534357666969299</v>
+        <v>-0.6534386873245239</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>91.00187683105469</v>
+        <v>91.00188446044922</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>79.87929534912109</v>
+        <v>79.87928771972656</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>94.32066345214844</v>
+        <v>94.32065582275391</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>78.4622802734375</v>
+        <v>78.46227264404297</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.8735440373420715</v>
+        <v>-0.8735499382019043</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-4.739689826965332</v>
+        <v>-4.739680767059326</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.6327840685844421</v>
+        <v>-0.6327928900718689</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.6324040293693542</v>
+        <v>-0.6323981881141663</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.9995545744895935</v>
+        <v>-0.9995486736297607</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.7348290681838989</v>
+        <v>-0.7348349690437317</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>94.05955505371094</v>
+        <v>94.05954742431641</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>92.41085052490234</v>
+        <v>92.41085815429688</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-3.850325584411621</v>
+        <v>-3.850316762924194</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>37.74314498901367</v>
+        <v>37.7431526184082</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.7955175638198853</v>
+        <v>-0.7955146431922913</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.01627085171639919</v>
+        <v>0.01627674326300621</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-5.351184844970703</v>
+        <v>-5.351176261901855</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.3064965903759003</v>
+        <v>0.3064936399459839</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-1.034878373146057</v>
+        <v>-1.034875512123108</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>94.70182037353516</v>
+        <v>94.70180511474609</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>95.58145904541016</v>
+        <v>95.58145141601562</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.8173122406005859</v>
+        <v>-0.8173210620880127</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>94.36668395996094</v>
+        <v>94.36669158935547</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.9904643893241882</v>
+        <v>-0.9904555678367615</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-3.0926833152771</v>
+        <v>-3.092686414718628</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>51.81366729736328</v>
+        <v>51.81367111206055</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.7512862086296082</v>
+        <v>-0.7512891292572021</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.37971431016922</v>
+        <v>-0.3797113597393036</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>94.53559112548828</v>
+        <v>94.53559875488281</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>95.83037567138672</v>
+        <v>95.83038330078125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>89.61919403076172</v>
+        <v>89.61918640136719</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>90.11604309082031</v>
+        <v>90.11603546142578</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.7182599306106567</v>
+        <v>-0.7182540893554688</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>66.50696563720703</v>
+        <v>66.50697326660156</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-1.024978160858154</v>
+        <v>-1.024975299835205</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>94.61360931396484</v>
+        <v>94.61361694335938</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.932014524936676</v>
+        <v>-0.932011604309082</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>96.06475067138672</v>
+        <v>96.06474304199219</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>3.637871503829956</v>
+        <v>3.637868404388428</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>92.09235382080078</v>
+        <v>92.09234619140625</v>
       </c>
     </row>
     <row r="92" spans="1:6">
